--- a/DATA_goal/Junction_Flooding_138.xlsx
+++ b/DATA_goal/Junction_Flooding_138.xlsx
@@ -449,11 +449,11 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -655,103 +655,103 @@
         <v>41570.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.45</v>
+        <v>0.45</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>45.15</v>
+        <v>4.51</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>37.34</v>
+        <v>3.73</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>55.35</v>
+        <v>5.54</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.06</v>
+        <v>2.61</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.01</v>
+        <v>1.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.79</v>
+        <v>1.88</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.84</v>
+        <v>1.68</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.64</v>
+        <v>2.36</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>249.02</v>
+        <v>24.9</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>46.88</v>
+        <v>4.69</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.55</v>
+        <v>1.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31</v>
+        <v>3.1</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>27.54</v>
+        <v>2.75</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.49</v>
+        <v>1.45</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.33</v>
+        <v>1.83</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>48.95</v>
+        <v>4.9</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.6</v>
+        <v>0.86</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.44</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41570.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.35</v>
+        <v>1.84</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.03</v>
+        <v>1.3</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.26</v>
+        <v>3.93</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.46</v>
+        <v>3.25</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>56.27</v>
+        <v>5.63</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.22</v>
+        <v>2.22</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.83</v>
+        <v>1.58</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.55</v>
+        <v>1.65</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.3</v>
+        <v>2.03</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.25</v>
+        <v>1.22</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>211.29</v>
+        <v>21.13</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>40.2</v>
+        <v>4.02</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.75</v>
+        <v>2.67</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.1</v>
+        <v>2.71</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.36</v>
+        <v>1.24</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.45</v>
+        <v>1.65</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>51.03</v>
+        <v>5.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.57</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41570.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>26.32</v>
+        <v>2.63</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>21.76</v>
+        <v>2.18</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>39.71</v>
+        <v>3.97</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.27</v>
+        <v>0.83</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>139.18</v>
+        <v>13.92</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>26.99</v>
+        <v>2.7</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.93</v>
+        <v>1.79</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.6</v>
+        <v>0.96</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.75</v>
+        <v>1.88</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.85</v>
+        <v>0.78</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>36.02</v>
+        <v>3.6</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.92</v>
+        <v>0.49</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41570.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="P5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF5" s="4" t="n">
         <v>0.86</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AG5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41570.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M6" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.97</v>
-      </c>
       <c r="N6" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="P6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T6" s="4" t="n">
         <v>8.42</v>
       </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>84.17</v>
-      </c>
       <c r="U6" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>18.53</v>
+        <v>1.85</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41570.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>31.14</v>
+        <v>3.11</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>25.74</v>
+        <v>2.57</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>41.42</v>
+        <v>4.14</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>17.45</v>
+        <v>1.75</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>13.21</v>
+        <v>1.32</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>164.34</v>
+        <v>16.43</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>31.47</v>
+        <v>3.15</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>21.13</v>
+        <v>2.11</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>11.25</v>
+        <v>1.13</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>20.42</v>
+        <v>2.04</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.18</v>
+        <v>0.82</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>9.6</v>
+        <v>0.96</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>13.18</v>
+        <v>1.32</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>37.45</v>
+        <v>3.74</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.85</v>
+        <v>0.58</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41570.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>27.82</v>
+        <v>2.78</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>23</v>
+        <v>2.3</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>39.85</v>
+        <v>3.99</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>10.31</v>
+        <v>1.03</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>11.25</v>
+        <v>1.13</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>146.04</v>
+        <v>14.6</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>28.2</v>
+        <v>2.82</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>18.94</v>
+        <v>1.89</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>19.27</v>
+        <v>1.93</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>11.78</v>
+        <v>1.18</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>36.23</v>
+        <v>3.62</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.23</v>
+        <v>0.52</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41570.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>21.91</v>
+        <v>2.19</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>47.5</v>
+        <v>4.75</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>39.26</v>
+        <v>3.93</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>17.24</v>
+        <v>1.72</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>65.34999999999999</v>
+        <v>6.53</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>26.53</v>
+        <v>2.65</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>17.66</v>
+        <v>1.77</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>19.14</v>
+        <v>1.91</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>20.16</v>
+        <v>2.02</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>24.45</v>
+        <v>2.45</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>253.63</v>
+        <v>25.36</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>47.91</v>
+        <v>4.79</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>32.32</v>
+        <v>3.23</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>32.01</v>
+        <v>3.2</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>12.34</v>
+        <v>1.23</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>20.08</v>
+        <v>2.01</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>59.27</v>
+        <v>5.93</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41570.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>18.36</v>
+        <v>1.84</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>3.29</v>
+        <v>0.33</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>37.39</v>
+        <v>3.74</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>8.6</v>
+        <v>0.86</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>3.03</v>
+        <v>0.3</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>8.25</v>
+        <v>0.82</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>3.42</v>
+        <v>0.34</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_138.xlsx
+++ b/DATA_goal/Junction_Flooding_138.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,19 +444,19 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -474,7 +474,7 @@
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41570.34027777778</v>
+        <v>44819.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.15</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.44</v>
+        <v>0.49</v>
       </c>
       <c r="D2" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.61</v>
-      </c>
       <c r="J2" s="4" t="n">
-        <v>1.1</v>
+        <v>0.21</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.69</v>
+        <v>0.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.8</v>
+        <v>0.52</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.88</v>
+        <v>0.36</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.09</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.68</v>
+        <v>0.35</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.36</v>
+        <v>0.48</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.25</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>24.9</v>
+        <v>4.89</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.69</v>
+        <v>0.96</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.1</v>
+        <v>0.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.62</v>
+        <v>0.46</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.75</v>
+        <v>0.76</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.37</v>
+        <v>0.19</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.27</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.45</v>
+        <v>0.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.83</v>
+        <v>0.45</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.9</v>
+        <v>0.58</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.86</v>
+        <v>0.24</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.94</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41570.34722222222</v>
+        <v>44819.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="G3" s="4" t="n">
         <v>1.3</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1.44</v>
-      </c>
       <c r="H3" s="4" t="n">
-        <v>5.63</v>
+        <v>4.54</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.13</v>
+        <v>19.26</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.02</v>
+        <v>3.63</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.67</v>
+        <v>2.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.71</v>
+        <v>2.44</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.1</v>
+        <v>4.06</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41570.35416666666</v>
+        <v>44819.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.23</v>
+        <v>0.88</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.63</v>
+        <v>1.86</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.18</v>
+        <v>1.59</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.66</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.97</v>
+        <v>2.89</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.47</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.73</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.07</v>
+        <v>0.77</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.11</v>
+        <v>0.79</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="O4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="P4" s="4" t="n">
         <v>0.96</v>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>1.36</v>
-      </c>
       <c r="Q4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.55</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13.92</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.7</v>
+        <v>1.88</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.79</v>
+        <v>1.26</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.88</v>
+        <v>1.47</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.51</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.55</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.55</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.11</v>
+        <v>0.8</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.6</v>
+        <v>2.61</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.11</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41570.36111111111</v>
+        <v>44819.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.92</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.11</v>
+        <v>2.6</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.09</v>
+        <v>2.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.93</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.9</v>
+        <v>3.61</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.08</v>
+        <v>1.43</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.04</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.09</v>
+        <v>13.56</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.85</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.76</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.95</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.37</v>
+        <v>1.82</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.73</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.77</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.05</v>
+        <v>1.11</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.86</v>
+        <v>3.24</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.51</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.06</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41570.36805555555</v>
+        <v>44819.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.77</v>
+        <v>24.13</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.55</v>
+        <v>18.2</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.65</v>
+        <v>52.12</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.36</v>
+        <v>43.41</v>
       </c>
       <c r="G6" s="4" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>71.16</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="T6" s="4" t="n">
-        <v>8.42</v>
+        <v>278.67</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.66</v>
+        <v>52.34</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>17.23</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.1</v>
+        <v>35.45</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.6</v>
+        <v>18.83</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.09</v>
+        <v>2.47</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1</v>
+        <v>35.54</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.49</v>
+        <v>15.07</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.44</v>
+        <v>13.85</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.52</v>
+        <v>15.68</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.7</v>
+        <v>22.12</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.85</v>
+        <v>64.34</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.31</v>
+        <v>10.02</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41570.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41570.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41570.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>25.36</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41570.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41570.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>23.93</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>51.92</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>42.92</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>22.04</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>26.71</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>277.66</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>52.25</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>17.28</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>35.29</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>34.06</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>21.61</v>
+        <v>21.56</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_138.xlsx
+++ b/DATA_goal/Junction_Flooding_138.xlsx
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
@@ -456,7 +456,7 @@
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -655,103 +655,103 @@
         <v>44819.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44819.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.7</v>
+        <v>17.03</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.11</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.62</v>
+        <v>36.22</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.07</v>
+        <v>30.71</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.99</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.54</v>
+        <v>45.38</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.79</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.95</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.28</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.96</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.86</v>
+        <v>18.64</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>192.58</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>36.34</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.06</v>
+        <v>40.56</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.19</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44819.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.89</v>
+        <v>28.86</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.68</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.25</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.68</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.87</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.55</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>95.45999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.78</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.05</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.65</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.68</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.45</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.61</v>
+        <v>26.09</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44819.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.6</v>
+        <v>25.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.85</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.61</v>
+        <v>36.13</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13.56</v>
+        <v>135.55</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.6</v>
+        <v>26.03</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.59</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.82</v>
+        <v>18.18</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.23</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.73</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.11</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.24</v>
+        <v>32.39</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.1</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_138.xlsx
+++ b/DATA_goal/Junction_Flooding_138.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44819.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.03</v>
+        <v>17.026</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.11</v>
+        <v>13.114</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.949</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.22</v>
+        <v>36.223</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>30.71</v>
+        <v>30.713</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.99</v>
+        <v>12.989</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>45.38</v>
+        <v>45.383</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.79</v>
+        <v>19.788</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>9.037000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14</v>
+        <v>14.002</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.95</v>
+        <v>14.946</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.28</v>
+        <v>15.281</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.13</v>
+        <v>4.129</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.96</v>
+        <v>12.963</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.64</v>
+        <v>18.638</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.76</v>
+        <v>10.761</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.31</v>
+        <v>0.307</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>192.58</v>
+        <v>192.576</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>36.34</v>
+        <v>36.335</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.86</v>
+        <v>11.864</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.41</v>
+        <v>24.406</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>13.47</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.75</v>
+        <v>1.748</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.43</v>
+        <v>24.434</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.11</v>
+        <v>10.108</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.45</v>
+        <v>10.446</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.69</v>
+        <v>10.688</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.57</v>
+        <v>15.567</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>40.56</v>
+        <v>40.558</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.19</v>
+        <v>7.193</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.87</v>
+        <v>14.874</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44819.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.82</v>
+        <v>8.816000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.78</v>
+        <v>6.783</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.534</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>18.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.88</v>
+        <v>15.883</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.63</v>
+        <v>6.627</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.86</v>
+        <v>28.863</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.11</v>
+        <v>10.115</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.68</v>
+        <v>4.682</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.25</v>
+        <v>7.252</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.68</v>
+        <v>7.678</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.87</v>
+        <v>7.865</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.13</v>
+        <v>2.131</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.62</v>
+        <v>6.622</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>9.630000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.55</v>
+        <v>5.546</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.475</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.102</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.45999999999999</v>
+        <v>95.45699999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.78</v>
+        <v>18.779</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.05</v>
+        <v>6.047</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.65</v>
+        <v>12.645</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.99</v>
+        <v>6.991</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.896</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.68</v>
+        <v>14.681</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.09</v>
+        <v>5.095</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>5.52</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.45</v>
+        <v>5.451</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.047000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.09</v>
+        <v>26.088</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.75</v>
+        <v>3.754</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.6</v>
+        <v>7.598</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>10.69</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44819.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>24.13</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>52.12</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>43.41</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>71.16</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.14</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>26.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>278.67</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>52.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>35.45</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>21.56</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_138.xlsx
+++ b/DATA_goal/Junction_Flooding_138.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,88 +967,88 @@
         <v>44819.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.15</v>
+        <v>12.147</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.23</v>
+        <v>9.225</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.581</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.96</v>
+        <v>25.956</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.85</v>
+        <v>21.854</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.31</v>
+        <v>9.311</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>36.13</v>
+        <v>36.133</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.29</v>
+        <v>14.289</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.51</v>
+        <v>6.509</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.93</v>
+        <v>9.927</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.56</v>
+        <v>10.561</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>11.02</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.99</v>
+        <v>2.992</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>9.282999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.39</v>
+        <v>13.391</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.75</v>
+        <v>7.752</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.408</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.228</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.55</v>
+        <v>135.552</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.03</v>
+        <v>26.029</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.52</v>
+        <v>8.522</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.59</v>
+        <v>17.592</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.52</v>
+        <v>9.522</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.24</v>
+        <v>1.237</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.18</v>
+        <v>18.178</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.34</v>
+        <v>7.343</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.23</v>
+        <v>7.227</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.73</v>
+        <v>7.733</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>11.11</v>
@@ -1060,10 +1060,114 @@
         <v>32.39</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.1</v>
+        <v>5.097</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.69</v>
+        <v>10.686</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44819.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>52.12</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>71.16</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>278.67</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>52.34</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>35.45</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>21.56</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_138.xlsx
+++ b/DATA_goal/Junction_Flooding_138.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,88 +967,88 @@
         <v>44819.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.147</v>
+        <v>12.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.225</v>
+        <v>9.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.581</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.956</v>
+        <v>25.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.854</v>
+        <v>21.85</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.311</v>
+        <v>9.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>36.133</v>
+        <v>36.13</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.289</v>
+        <v>14.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.509</v>
+        <v>6.51</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.927</v>
+        <v>9.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.561</v>
+        <v>10.56</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>11.02</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.992</v>
+        <v>2.99</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.282999999999999</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.391</v>
+        <v>13.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.752</v>
+        <v>7.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.408</v>
+        <v>0.41</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.228</v>
+        <v>0.23</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.552</v>
+        <v>135.55</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.029</v>
+        <v>26.03</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.522</v>
+        <v>8.52</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.592</v>
+        <v>17.59</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.522</v>
+        <v>9.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.237</v>
+        <v>1.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.178</v>
+        <v>18.18</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.343</v>
+        <v>7.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.227</v>
+        <v>7.23</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.733</v>
+        <v>7.73</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>11.11</v>
@@ -1060,114 +1060,10 @@
         <v>32.39</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.097</v>
+        <v>5.1</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.686</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44819.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>24.13</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>52.12</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>43.41</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>71.16</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.14</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>26.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>278.67</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>52.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>35.45</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>21.56</v>
+        <v>10.69</v>
       </c>
     </row>
   </sheetData>
